--- a/bots/crawl_ch/output/electronics_2022-09-16.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-09-16.xlsx
@@ -531,24 +531,24 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6579165</t>
+          <t>4425412</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
+          <t>Militär Taschenlampe LED</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/militaer-taschenlampe-led/p/4425412</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -558,12 +558,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>44.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -572,51 +572,49 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
+          <t>Militär Taschenlampe LED 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>6579165</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/kosmetik-gesundheit/herrenpflege-rasur/elektrische-herrenrasierer/satrap-trimm-set-xa-5-in-1-haartrimm-set/p/6579165</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>44.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -625,88 +623,70 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['kosmetik-gesundheit', 'herrenpflege-rasur', 'elektrische-herrenrasierer']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
+          <t>satrap Trimm Set XA 5-in-1 Haar/Trimm-Set 25% Aktion 44.95 Schweizer Franken statt 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6378875</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/wilkinson-intuition-4in1-finish-styler/p/6378875</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Wilkinson</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Wilkinson Intuition 4in1 Finish Styler 25% ab 2 Aktion 29.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -777,7 +757,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -848,7 +828,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -901,7 +881,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -974,7 +954,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1005,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -1098,41 +1078,39 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5751209</t>
+          <t>7024750</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
+          <t>Samsung Mikrowelle mit Grill GE87MC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/samsung-mikrowelle-mit-grill-ge87mc/p/7024750</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>3</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1141,42 +1119,42 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>satrap Ferru BE1 2200 Dampfbügeleisen 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>Samsung Mikrowelle mit Grill GE87MC 32% Aktion 100.00 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6425996</t>
+          <t>5751209</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-ferru-be1-2200-dampfbuegeleisen/p/5751209</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1185,7 +1163,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>186.75</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1194,224 +1172,244 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>satrap espresso XA Kolbenkaffeemaschine 25% Aktion 186.75 Schweizer Franken statt 249.00 Schweizer Franken</t>
+          <t>satrap Ferru BE1 2200 Dampfbügeleisen 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3591272</t>
+          <t>6425996</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power D 2er Bli</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-espresso-xa-kolbenkaffeemaschine/p/6425996</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>4.98/1ST</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>186.75</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
+          <t>satrap espresso XA Kolbenkaffeemaschine 25% Aktion 186.75 Schweizer Franken statt 249.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6725106</t>
+          <t>4589933</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Braun Dampfbügelstation IS1012BL</t>
+          <t>Varta Longlife AAA 4er Bli</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/braun-dampfbuegelstation-is1012bl/p/6725106</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Braun</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>149.00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.99/1ST</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Braun Dampfbügelstation IS1012BL 149.00 Schweizer Franken</t>
+          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6982305</t>
+          <t>3591272</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kenwood Küchenmaschine MultiOne KHH326WH</t>
+          <t>Varta Longlife Max Power D 2er Bli</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/kenwood-kuechenmaschine-multione-khh326wh/p/6982305</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-max-power-d-2er-bli/p/3591272</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Kenwood</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>299.00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>4.98/1ST</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Kenwood Küchenmaschine MultiOne KHH326WH 40% Aktion 299.00 Schweizer Franken statt 499.00 Schweizer Franken</t>
+          <t>Varta Longlife Max Power D 2er Bli 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6735643</t>
+          <t>6725106</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
+          <t>Braun Dampfbügelstation IS1012BL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/braun-dampfbuegelstation-is1012bl/p/6725106</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Braun</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>149.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -1420,34 +1418,34 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Braun Dampfbügelstation IS1012BL 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5882124</t>
+          <t>6982305</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
+          <t>Kenwood Küchenmaschine MultiOne KHH326WH</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/kenwood-kuechenmaschine-multione-khh326wh/p/6982305</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1457,12 +1455,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Avent</t>
+          <t>Kenwood</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>99.90</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -1471,41 +1469,37 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
+          <t>Kenwood Küchenmaschine MultiOne KHH326WH 40% Aktion 299.00 Schweizer Franken statt 499.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4358322</t>
+          <t>6735643</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/haushalt-kueche/uebrige-haushaltsartikel/led-31v-anschlussset-transfverlkabel/p/6735643</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>1</v>
       </c>
@@ -1514,7 +1508,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1522,56 +1516,40 @@
           <t>9.95</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'haushalt-kueche', 'uebrige-haushaltsartikel']</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
+          <t>LED 31V Anschlussset Transf.+Verl.kabel 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7024750</t>
+          <t>5882124</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Samsung Mikrowelle mit Grill GE87MC</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/samsung-mikrowelle-mit-grill-ge87mc/p/7024750</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/philips-avent-audio-monitors-dect-babyphone/p/5882124</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1581,12 +1559,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Avent</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>99.90</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1595,93 +1573,113 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Samsung Mikrowelle mit Grill GE87MC 32% Aktion 100.00 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>Philips Avent Audio Monitors DECT-Babyphone 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5764836</t>
+          <t>4358322</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-13-6-stueck/p/4358322</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>satrap Aqua W4 Wasserkocher 25% Aktion 29.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 13 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6288875</t>
+          <t>5764836</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
+          <t>satrap Aqua W4 Wasserkocher</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-aqua-w4-wasserkocher/p/5764836</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1690,7 +1688,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111.75</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -1699,34 +1697,34 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 25% Aktion 111.75 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap Aqua W4 Wasserkocher 25% Aktion 29.95 Schweizer Franken statt 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6125818</t>
+          <t>6288875</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-buegeleisen-mit-power-dampfstation-station-xa-65/p/6288875</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1734,7 +1732,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1743,7 +1741,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>37.45</t>
+          <t>111.75</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1752,49 +1750,51 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>satrap Mano XA Handmixer 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
+          <t>satrap Bügeleisen mit Power-Dampfstation Station XA 6.5 25% Aktion 111.75 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6753975</t>
+          <t>6125818</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563</t>
+          <t>satrap Mano XA Handmixer</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mano-xa-handmixer/p/6125818</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>74.50</t>
+          <t>37.45</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1808,29 +1808,29 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
+          <t>satrap Mano XA Handmixer 25% Aktion 37.45 Schweizer Franken statt 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6822783</t>
+          <t>6753975</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-standgrill-mit-grillplatte-pg-8563/p/6753975</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Trend</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>74.50</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1854,34 +1854,34 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
+          <t>Severin Standgrill mit Grillplatte PG 8563 50% Aktion 74.50 Schweizer Franken statt 149.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6872922</t>
+          <t>6822783</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C</t>
+          <t>Trend Car Charger QC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-car-charger-qc/p/6822783</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>49.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -1905,42 +1905,40 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
+          <t>Trend Car Charger QC 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6007537</t>
+          <t>6872922</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB</t>
+          <t>Trend Radio DAB+ DB-23C</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/trend-radio-dab-db-23c/p/6872922</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1949,7 +1947,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -1958,40 +1956,42 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
+          <t>Trend Radio DAB+ DB-23C 49.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6459240</t>
+          <t>6007537</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB</t>
+          <t>Trend USB-Stick 16 GB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-16-gb/p/6007537</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>59.95</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -2014,29 +2014,29 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 16 GB 16.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6007538</t>
+          <t>6459240</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB</t>
+          <t>Trend USB-Stick 256 GB</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-256-gb/p/6459240</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>59.95</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2065,37 +2065,35 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 256 GB 59.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5867973</t>
+          <t>6007538</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB</t>
+          <t>Trend USB-Stick 32 GB</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-32-gb/p/6007538</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>4</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2104,7 +2102,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>39.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -2118,105 +2116,87 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 32 GB 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5894674</t>
+          <t>5867973</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System</t>
+          <t>Trend USB-Stick 64 GB</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/trend-usb-stick-64-gb/p/5867973</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Trisa</t>
+          <t>Trend</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>29.95/1ST</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>39.95</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Trisa Beauty Sonic Nail Care System 25% ab 2 Aktion 29.95 Schweizer Franken</t>
+          <t>Trend USB-Stick 64 GB 39.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>4589933</t>
+          <t>5894674</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli</t>
+          <t>Trisa Beauty Sonic Nail Care System</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-aaa-4er-bli/p/4589933</t>
+          <t>/de/kosmetik-gesundheit/make-up/naegel/set-accessoires/trisa-beauty-sonic-nail-care-system/p/5894674</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2225,17 +2205,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Trisa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>29.95/1ST</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2245,7 +2225,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2255,17 +2235,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['kosmetik-gesundheit', 'make-up', 'naegel', 'set-accessoires']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Varta Longlife AAA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Trisa Beauty Sonic Nail Care System 25% ab 2 Aktion 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2316,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
@@ -2407,7 +2387,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-09-16 07:10:16</t>
+          <t>2022-09-16 21:00:35</t>
         </is>
       </c>
     </row>
